--- a/Experiments/230523_isoforms/plasmids_sp_230519.xlsx
+++ b/Experiments/230523_isoforms/plasmids_sp_230519.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/TODO_isoforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230523_isoforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3C9E04-9C30-7048-9A15-D0D98B4FB29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CBB56C-AEEC-D24D-8DE4-6D29043E363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -562,6 +562,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +871,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:G54"/>
+      <selection activeCell="A47" sqref="A47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,48 +943,48 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>80</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>41.839999999999897</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>82.986043809999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>50.473999999999798</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1008,25 +1012,25 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>56.910569109999997</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>59.25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1859,22 +1863,22 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>30</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>55.199999999999903</v>
       </c>
       <c r="G44" t="s">
@@ -1905,25 +1909,25 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>28.9</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>30</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1946,7 +1950,7 @@
       <c r="F47" s="3">
         <v>30</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1969,7 +1973,7 @@
       <c r="F48" s="3">
         <v>30</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="5" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1992,7 +1996,7 @@
       <c r="F49" s="3">
         <v>30</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2015,99 +2019,99 @@
       <c r="F50" s="3">
         <v>30</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>50</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="5">
         <v>30</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>50</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="5">
         <v>30</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <v>50</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="5">
         <v>30</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <v>50</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="5">
         <v>30</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="5" t="s">
         <v>124</v>
       </c>
     </row>
